--- a/uploads/import/format/format_alumni.xlsx
+++ b/uploads/import/format/format_alumni.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp73\htdocs\main\uploads\import\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\main\uploads\import\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70878664-55D0-429B-AFFE-F2FF1EA8DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC92E4-8448-472E-8236-AC8BBB9B7EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>KODE POS</t>
   </si>
@@ -133,13 +124,6 @@
   </si>
   <si>
     <t>TEMPAT LAHIR</t>
-  </si>
-  <si>
-    <t>SISWA</t>
-  </si>
-  <si>
-    <t>TANGGAL LAHIR FORMAT
-(DD-MM-YYY) CONTOH (05-06-1990)</t>
   </si>
   <si>
     <t>EMAIL</t>
@@ -248,6 +232,11 @@
       </rPr>
       <t>*</t>
     </r>
+  </si>
+  <si>
+    <t>TANGGAL LAHIR
+FORMAT (DD-MM-YYY)
+CONTOH (05-06-1990)</t>
   </si>
 </sst>
 </file>
@@ -279,18 +268,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -326,25 +309,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118515D4-AE31-47E3-8FA2-673C74238DA7}">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,196 +644,146 @@
     <col min="39" max="39" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:39" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="4"/>
-      <c r="AD3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="4"/>
-      <c r="AJ3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="4"/>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="4"/>
+      <c r="AD2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="4"/>
+      <c r="AJ2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AH1:AM1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
